--- a/Doku/multithreadingGesch.xlsx
+++ b/Doku/multithreadingGesch.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="7">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -202,6 +202,9 @@
                 <c:pt idx="25">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="40">
+                  <c:v>timestaps</c:v>
+                </c:pt>
                 <c:pt idx="42">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -213,6 +216,9 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>timestaps</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>1000</c:v>
@@ -316,6 +322,12 @@
                 <c:pt idx="31">
                   <c:v>0.48</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="42">
                   <c:v>74.324285714285708</c:v>
                 </c:pt>
@@ -394,8 +406,14 @@
                 <c:pt idx="71">
                   <c:v>0.36</c:v>
                 </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.2200000000000002</c:v>
+                  <c:v>1.528925619834711</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>2.25</c:v>
@@ -507,6 +525,9 @@
                 <c:pt idx="25">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="40">
+                  <c:v>timestaps</c:v>
+                </c:pt>
                 <c:pt idx="42">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -518,6 +539,9 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>timestaps</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>1000</c:v>
@@ -596,6 +620,9 @@
                 <c:pt idx="25">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="40">
+                  <c:v>timestaps</c:v>
+                </c:pt>
                 <c:pt idx="42">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -607,6 +634,9 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>timestaps</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>1000</c:v>
@@ -710,6 +740,12 @@
                 <c:pt idx="31">
                   <c:v>0.86</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="42">
                   <c:v>180.98142857142858</c:v>
                 </c:pt>
@@ -787,6 +823,12 @@
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>1.452</c:v>
@@ -1067,7 +1109,649 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>multithreadingGesch!$E$43:$E$44</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>multithreadingGesch!$E$43</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>multithreadingGesch!$E$43</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Multithreading</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>multithreadingGesch!$D$45:$D$76</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(multithreadingGesch!$D$47,multithreadingGesch!$D$56,multithreadingGesch!$D$63)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>multithreadingGesch!$E$45:$E$76</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(multithreadingGesch!$E$47,multithreadingGesch!$E$56,multithreadingGesch!$E$63)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>74.324285714285708</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42.811999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4699999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C3FA-475F-B0CC-C22BA95B26CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>multithreadingGesch!$G$43:$G$44</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>multithreadingGesch!$G$43</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>multithreadingGesch!$G$43</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>kein Multithreading</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>multithreadingGesch!$D$45:$D$76</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(multithreadingGesch!$D$47,multithreadingGesch!$D$56,multithreadingGesch!$D$63)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>multithreadingGesch!$G$45:$G$76</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(multithreadingGesch!$G$47,multithreadingGesch!$G$56,multithreadingGesch!$G$63)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>180.98142857142858</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86.701999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6260000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C3FA-475F-B0CC-C22BA95B26CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2123949872"/>
+        <c:axId val="2128887264"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>multithreadingGesch!$F$43:$F$44</c15:sqref>
+                        </c15:fullRef>
+                        <c15:levelRef>
+                          <c15:sqref>multithreadingGesch!$F$43</c15:sqref>
+                        </c15:levelRef>
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$F$43</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>Multithreading</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>multithreadingGesch!$D$45:$D$76</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(multithreadingGesch!$D$47,multithreadingGesch!$D$56,multithreadingGesch!$D$63)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>10</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>multithreadingGesch!$F$45:$F$76</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(multithreadingGesch!$F$47,multithreadingGesch!$F$56,multithreadingGesch!$F$63)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-C3FA-475F-B0CC-C22BA95B26CE}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2123949872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Timestaps</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2128887264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2128887264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Zeit in s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2123949872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1623,6 +2307,511 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1650,6 +2839,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>644338</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>129989</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagramm 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1921,10 +3140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I113"/>
+  <dimension ref="A1:M113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M90" sqref="M90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2224,6 +3443,31 @@
         <v>0.86</v>
       </c>
     </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E43" t="s">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C47">
         <v>10000</v>
@@ -2480,7 +3724,32 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="89" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="E85" t="s">
+        <v>1</v>
+      </c>
+      <c r="G85" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C87" t="s">
+        <v>3</v>
+      </c>
+      <c r="D87" t="s">
+        <v>4</v>
+      </c>
+      <c r="E87" t="s">
+        <v>5</v>
+      </c>
+      <c r="G87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89">
         <v>10</v>
       </c>
@@ -2488,8 +3757,8 @@
         <v>1000</v>
       </c>
       <c r="E89">
-        <f>AVERAGE(E90:E96)</f>
-        <v>2.2200000000000002</v>
+        <f>AVERAGE(E90:E96)/G89</f>
+        <v>1.528925619834711</v>
       </c>
       <c r="G89">
         <f>AVERAGE(G90:G96)</f>
@@ -2497,10 +3766,14 @@
       </c>
       <c r="I89">
         <f>G89/E89</f>
-        <v>0.65405405405405392</v>
-      </c>
-    </row>
-    <row r="90" spans="3:9" x14ac:dyDescent="0.2">
+        <v>0.94968648648648635</v>
+      </c>
+      <c r="M89">
+        <f>E89/G89</f>
+        <v>1.0529790770211509</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="E90">
         <v>2.25</v>
       </c>
@@ -2508,7 +3781,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="91" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="E91">
         <v>1.95</v>
       </c>
@@ -2516,7 +3789,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="92" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="E92">
         <v>2.69</v>
       </c>
@@ -2524,7 +3797,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="93" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="E93">
         <v>2.66</v>
       </c>
@@ -2532,7 +3805,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="94" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="E94">
         <v>1.55</v>
       </c>

--- a/Doku/multithreadingGesch.xlsx
+++ b/Doku/multithreadingGesch.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>* schneller</t>
+  </si>
+  <si>
+    <t>Multithreading 2 Kerne</t>
+  </si>
+  <si>
+    <t>Multithreading 4 Kerne</t>
   </si>
 </sst>
 </file>
@@ -165,7 +171,7 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Multithreading</c:v>
+                  <c:v>Multithreading 4 Kerne</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -184,52 +190,52 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>multithreadingGesch!$D$5:$D$113</c:f>
+              <c:f>multithreadingGesch!$D$4:$D$113</c:f>
               <c:strCache>
-                <c:ptCount val="109"/>
-                <c:pt idx="0">
+                <c:ptCount val="110"/>
+                <c:pt idx="1">
                   <c:v>timestaps</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>timestaps</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="67">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="83">
                   <c:v>timestaps</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="85">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="94">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="101">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="109">
                   <c:v>1</c:v>
                 </c:pt>
               </c:strCache>
@@ -488,7 +494,7 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Multithreading</c:v>
+                  <c:v>Multithreading 2 Kerne</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -507,52 +513,52 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>multithreadingGesch!$D$5:$D$113</c:f>
+              <c:f>multithreadingGesch!$D$4:$D$113</c:f>
               <c:strCache>
-                <c:ptCount val="109"/>
-                <c:pt idx="0">
+                <c:ptCount val="110"/>
+                <c:pt idx="1">
                   <c:v>timestaps</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>timestaps</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="67">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="83">
                   <c:v>timestaps</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="85">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="94">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="101">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="109">
                   <c:v>1</c:v>
                 </c:pt>
               </c:strCache>
@@ -564,6 +570,93 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="109"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>101.538</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>98.56</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>101.32</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>106.67</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>89.95</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>111.19</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>60.46</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>57.9</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>61.87</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>67.239999999999995</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43.93</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>71.36</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.58</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.1800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.54</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -602,52 +695,52 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>multithreadingGesch!$D$5:$D$113</c:f>
+              <c:f>multithreadingGesch!$D$4:$D$113</c:f>
               <c:strCache>
-                <c:ptCount val="109"/>
-                <c:pt idx="0">
+                <c:ptCount val="110"/>
+                <c:pt idx="1">
                   <c:v>timestaps</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>timestaps</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="67">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="83">
                   <c:v>timestaps</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="85">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="94">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="101">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="109">
                   <c:v>1</c:v>
                 </c:pt>
               </c:strCache>
@@ -1399,6 +1492,9 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
+                      <c:pt idx="1">
+                        <c:v>60.46</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -1711,6 +1807,4554 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Vergleich</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> Multithreading anzahl Kerne</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21430555555555558"/>
+          <c:y val="3.7037037037037035E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>multithreadingGesch!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Particles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>multithreadingGesch!$E$3:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Multithreading 4 Kerne</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Multithreading 2 Kerne</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>kein Multithreading</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>multithreadingGesch!$E$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3F1A-430C-BBEA-086961ADBC59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>multithreadingGesch!$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>multithreadingGesch!$E$3:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Multithreading 4 Kerne</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Multithreading 2 Kerne</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>kein Multithreading</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>multithreadingGesch!$E$15:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>76.616</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101.538</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125.54799999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-3F1A-430C-BBEA-086961ADBC59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="51"/>
+          <c:order val="51"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>multithreadingGesch!$C$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>multithreadingGesch!$E$3:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Multithreading 4 Kerne</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Multithreading 2 Kerne</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>kein Multithreading</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>multithreadingGesch!$E$56:$G$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>42.811999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60.46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86.701999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000033-3F1A-430C-BBEA-086961ADBC59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="364023280"/>
+        <c:axId val="364022448"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$C$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$3:$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Multithreading 4 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Multithreading 2 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>kein Multithreading</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$6:$G$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>191.43600000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1321.5079999999998</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-3F1A-430C-BBEA-086961ADBC59}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$C$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$3:$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Multithreading 4 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Multithreading 2 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>kein Multithreading</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$7:$G$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>95.73</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>685.72</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-3F1A-430C-BBEA-086961ADBC59}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$C$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$3:$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Multithreading 4 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Multithreading 2 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>kein Multithreading</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$8:$G$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>232.15</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>148.63</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-3F1A-430C-BBEA-086961ADBC59}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$C$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$3:$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Multithreading 4 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Multithreading 2 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>kein Multithreading</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$9:$G$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>105.05</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1662.46</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-3F1A-430C-BBEA-086961ADBC59}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$C$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$3:$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Multithreading 4 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Multithreading 2 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>kein Multithreading</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$10:$G$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>91.09</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2053.9899999999998</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-3F1A-430C-BBEA-086961ADBC59}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$C$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$3:$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Multithreading 4 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Multithreading 2 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>kein Multithreading</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$11:$G$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>433.16</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2056.7399999999998</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-3F1A-430C-BBEA-086961ADBC59}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$C$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$3:$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Multithreading 4 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Multithreading 2 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>kein Multithreading</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$12:$G$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-3F1A-430C-BBEA-086961ADBC59}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$C$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$3:$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Multithreading 4 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Multithreading 2 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>kein Multithreading</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$13:$G$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-3F1A-430C-BBEA-086961ADBC59}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$C$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$3:$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Multithreading 4 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Multithreading 2 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>kein Multithreading</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$14:$G$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-3F1A-430C-BBEA-086961ADBC59}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="11"/>
+                <c:order val="11"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$C$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$3:$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Multithreading 4 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Multithreading 2 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>kein Multithreading</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$16:$G$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>52.94</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>98.56</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>142.88</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000B-3F1A-430C-BBEA-086961ADBC59}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="12"/>
+                <c:order val="12"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$C$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$3:$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Multithreading 4 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Multithreading 2 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>kein Multithreading</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$17:$G$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>83</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>101.32</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>61.39</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000C-3F1A-430C-BBEA-086961ADBC59}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="13"/>
+                <c:order val="13"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$C$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$3:$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Multithreading 4 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Multithreading 2 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>kein Multithreading</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$18:$G$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>81.96</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>106.67</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>137.41</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000D-3F1A-430C-BBEA-086961ADBC59}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="14"/>
+                <c:order val="14"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$C$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$3:$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Multithreading 4 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Multithreading 2 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>kein Multithreading</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$19:$G$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>82.64</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>89.95</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>144.54</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000E-3F1A-430C-BBEA-086961ADBC59}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="15"/>
+                <c:order val="15"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$C$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$3:$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Multithreading 4 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Multithreading 2 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>kein Multithreading</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$20:$G$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>82.54</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>111.19</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>141.52000000000001</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000F-3F1A-430C-BBEA-086961ADBC59}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="16"/>
+                <c:order val="16"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$C$21</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$3:$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Multithreading 4 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Multithreading 2 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>kein Multithreading</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$21:$G$21</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000010-3F1A-430C-BBEA-086961ADBC59}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="17"/>
+                <c:order val="17"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$C$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$3:$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Multithreading 4 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Multithreading 2 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>kein Multithreading</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$22:$G$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>5.5900000000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>8.8783333333333339</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000011-3F1A-430C-BBEA-086961ADBC59}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="18"/>
+                <c:order val="18"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$C$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="80000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$3:$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Multithreading 4 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Multithreading 2 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>kein Multithreading</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$23:$G$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>6.15</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>10.07</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000012-3F1A-430C-BBEA-086961ADBC59}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="19"/>
+                <c:order val="19"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$C$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="80000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$3:$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Multithreading 4 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Multithreading 2 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>kein Multithreading</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$24:$G$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>6.71</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>10.199999999999999</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000013-3F1A-430C-BBEA-086961ADBC59}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="20"/>
+                <c:order val="20"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$C$25</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="80000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$3:$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Multithreading 4 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Multithreading 2 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>kein Multithreading</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$25:$G$25</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>6.35</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>10.14</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000014-3F1A-430C-BBEA-086961ADBC59}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="21"/>
+                <c:order val="21"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$C$26</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="80000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$3:$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Multithreading 4 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Multithreading 2 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>kein Multithreading</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$26:$G$26</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>4.74</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7.62</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000015-3F1A-430C-BBEA-086961ADBC59}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="22"/>
+                <c:order val="22"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$C$27</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="80000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$3:$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Multithreading 4 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Multithreading 2 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>kein Multithreading</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$27:$G$27</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>4.7699999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7.6</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000016-3F1A-430C-BBEA-086961ADBC59}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="23"/>
+                <c:order val="23"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$C$28</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="80000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$3:$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Multithreading 4 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Multithreading 2 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>kein Multithreading</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$28:$G$28</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>4.82</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7.64</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000017-3F1A-430C-BBEA-086961ADBC59}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="24"/>
+                <c:order val="24"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$C$29</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$3:$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Multithreading 4 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Multithreading 2 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>kein Multithreading</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$29:$G$29</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000018-3F1A-430C-BBEA-086961ADBC59}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="25"/>
+                <c:order val="25"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$C$30</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$3:$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Multithreading 4 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Multithreading 2 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>kein Multithreading</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$30:$G$30</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>0.6333333333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.97166666666666679</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000019-3F1A-430C-BBEA-086961ADBC59}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="26"/>
+                <c:order val="26"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$C$31</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$3:$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Multithreading 4 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Multithreading 2 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>kein Multithreading</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$31:$G$31</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.1599999999999999</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000001A-3F1A-430C-BBEA-086961ADBC59}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="27"/>
+                <c:order val="27"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$C$32</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$3:$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Multithreading 4 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Multithreading 2 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>kein Multithreading</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$32:$G$32</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>0.74</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.0900000000000001</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000001B-3F1A-430C-BBEA-086961ADBC59}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="28"/>
+                <c:order val="28"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$C$33</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$3:$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Multithreading 4 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Multithreading 2 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>kein Multithreading</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$33:$G$33</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>0.91</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.07</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000001C-3F1A-430C-BBEA-086961ADBC59}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="29"/>
+                <c:order val="29"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$C$34</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$3:$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Multithreading 4 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Multithreading 2 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>kein Multithreading</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$34:$G$34</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>0.49</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.83</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000001D-3F1A-430C-BBEA-086961ADBC59}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="30"/>
+                <c:order val="30"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$C$35</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$3:$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Multithreading 4 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Multithreading 2 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>kein Multithreading</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$35:$G$35</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>0.48</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.82</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000001E-3F1A-430C-BBEA-086961ADBC59}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="31"/>
+                <c:order val="31"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$C$36</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$3:$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Multithreading 4 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Multithreading 2 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>kein Multithreading</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$36:$G$36</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>0.48</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.86</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000001F-3F1A-430C-BBEA-086961ADBC59}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="32"/>
+                <c:order val="32"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$C$37</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$3:$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Multithreading 4 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Multithreading 2 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>kein Multithreading</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$37:$G$37</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000020-3F1A-430C-BBEA-086961ADBC59}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="33"/>
+                <c:order val="33"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$C$38</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$3:$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Multithreading 4 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Multithreading 2 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>kein Multithreading</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$38:$G$38</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000021-3F1A-430C-BBEA-086961ADBC59}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="34"/>
+                <c:order val="34"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$C$39</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$3:$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Multithreading 4 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Multithreading 2 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>kein Multithreading</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$39:$G$39</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000022-3F1A-430C-BBEA-086961ADBC59}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="35"/>
+                <c:order val="35"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$C$40</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$3:$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Multithreading 4 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Multithreading 2 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>kein Multithreading</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$40:$G$40</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000023-3F1A-430C-BBEA-086961ADBC59}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="36"/>
+                <c:order val="36"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$C$41</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="70000"/>
+                      <a:lumOff val="30000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$3:$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Multithreading 4 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Multithreading 2 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>kein Multithreading</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$41:$G$41</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000024-3F1A-430C-BBEA-086961ADBC59}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="37"/>
+                <c:order val="37"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$C$42</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="70000"/>
+                      <a:lumOff val="30000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$3:$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Multithreading 4 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Multithreading 2 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>kein Multithreading</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$42:$G$42</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000025-3F1A-430C-BBEA-086961ADBC59}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="38"/>
+                <c:order val="38"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$C$43</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="70000"/>
+                      <a:lumOff val="30000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$3:$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Multithreading 4 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Multithreading 2 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>kein Multithreading</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$43:$G$43</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000026-3F1A-430C-BBEA-086961ADBC59}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="39"/>
+                <c:order val="39"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$C$44</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="70000"/>
+                      <a:lumOff val="30000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$3:$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Multithreading 4 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Multithreading 2 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>kein Multithreading</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$44:$G$44</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000027-3F1A-430C-BBEA-086961ADBC59}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="40"/>
+                <c:order val="40"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$C$45</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Particles</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="70000"/>
+                      <a:lumOff val="30000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$3:$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Multithreading 4 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Multithreading 2 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>kein Multithreading</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$45:$G$45</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000028-3F1A-430C-BBEA-086961ADBC59}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="41"/>
+                <c:order val="41"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$C$46</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="70000"/>
+                      <a:lumOff val="30000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$3:$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Multithreading 4 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Multithreading 2 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>kein Multithreading</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$46:$G$46</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000029-3F1A-430C-BBEA-086961ADBC59}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="42"/>
+                <c:order val="42"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$C$47</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="70000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$3:$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Multithreading 4 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Multithreading 2 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>kein Multithreading</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$47:$G$47</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>74.324285714285708</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>180.98142857142858</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000002A-3F1A-430C-BBEA-086961ADBC59}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="43"/>
+                <c:order val="43"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$C$48</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="70000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$3:$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Multithreading 4 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Multithreading 2 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>kein Multithreading</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$48:$G$48</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>64.400000000000006</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>280.70999999999998</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000002B-3F1A-430C-BBEA-086961ADBC59}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="44"/>
+                <c:order val="44"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$C$49</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="70000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$3:$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Multithreading 4 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Multithreading 2 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>kein Multithreading</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$49:$G$49</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>109.11</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>272.31</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000002C-3F1A-430C-BBEA-086961ADBC59}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="45"/>
+                <c:order val="45"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$C$50</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="70000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$3:$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Multithreading 4 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Multithreading 2 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>kein Multithreading</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$50:$G$50</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>35.72</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>143.4</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000002D-3F1A-430C-BBEA-086961ADBC59}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="46"/>
+                <c:order val="46"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$C$51</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="70000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$3:$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Multithreading 4 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Multithreading 2 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>kein Multithreading</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$51:$G$51</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>92</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>99.47</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000002E-3F1A-430C-BBEA-086961ADBC59}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="47"/>
+                <c:order val="47"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$C$52</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="70000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$3:$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Multithreading 4 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Multithreading 2 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>kein Multithreading</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$52:$G$52</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>339.11</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000002F-3F1A-430C-BBEA-086961ADBC59}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="48"/>
+                <c:order val="48"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$C$53</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$3:$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Multithreading 4 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Multithreading 2 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>kein Multithreading</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$53:$G$53</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>97.58</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>45.44</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000030-3F1A-430C-BBEA-086961ADBC59}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="49"/>
+                <c:order val="49"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$C$54</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$3:$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Multithreading 4 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Multithreading 2 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>kein Multithreading</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$54:$G$54</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>81.459999999999994</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>86.43</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000031-3F1A-430C-BBEA-086961ADBC59}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="50"/>
+                <c:order val="50"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$C$55</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$3:$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Multithreading 4 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Multithreading 2 Kerne</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>kein Multithreading</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>multithreadingGesch!$E$55:$G$55</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000032-3F1A-430C-BBEA-086961ADBC59}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="364023280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Anzahl Partikel</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.42242692324500125"/>
+              <c:y val="0.91427736116510883"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="364022448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="364022448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Zeit in s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="364023280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.39330767710355891"/>
+          <c:y val="0.85196111930694884"/>
+          <c:w val="0.21791010498687663"/>
+          <c:h val="7.8125546806649168E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1752,6 +6396,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2812,6 +7496,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2869,6 +8056,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>582704</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>62753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>161745</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>71886</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Diagramm 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3142,8 +8359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M90" sqref="M90"/>
+    <sheetView tabSelected="1" topLeftCell="G16" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3151,7 +8368,7 @@
     <col min="1" max="1" width="2.140625" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="5" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
     <col min="8" max="8" width="9.42578125" customWidth="1"/>
     <col min="9" max="9" width="16.7109375" customWidth="1"/>
@@ -3164,7 +8381,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E3" t="s">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
       </c>
       <c r="G3" t="s">
         <v>2</v>
@@ -3180,6 +8400,9 @@
       <c r="E5" t="s">
         <v>5</v>
       </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
       <c r="G5" t="s">
         <v>5</v>
       </c>
@@ -3258,6 +8481,10 @@
         <f>AVERAGE(E16:E21)</f>
         <v>76.616</v>
       </c>
+      <c r="F15">
+        <f>AVERAGE(F16:F20)</f>
+        <v>101.538</v>
+      </c>
       <c r="G15">
         <f>AVERAGE(G16:G21)</f>
         <v>125.54799999999997</v>
@@ -3271,6 +8498,9 @@
       <c r="E16">
         <v>52.94</v>
       </c>
+      <c r="F16">
+        <v>98.56</v>
+      </c>
       <c r="G16">
         <v>142.88</v>
       </c>
@@ -3279,6 +8509,9 @@
       <c r="E17">
         <v>83</v>
       </c>
+      <c r="F17">
+        <v>101.32</v>
+      </c>
       <c r="G17">
         <v>61.39</v>
       </c>
@@ -3287,6 +8520,9 @@
       <c r="E18">
         <v>81.96</v>
       </c>
+      <c r="F18">
+        <v>106.67</v>
+      </c>
       <c r="G18">
         <v>137.41</v>
       </c>
@@ -3295,6 +8531,9 @@
       <c r="E19">
         <v>82.64</v>
       </c>
+      <c r="F19">
+        <v>89.95</v>
+      </c>
       <c r="G19">
         <v>144.54</v>
       </c>
@@ -3303,6 +8542,9 @@
       <c r="E20">
         <v>82.54</v>
       </c>
+      <c r="F20">
+        <v>111.19</v>
+      </c>
       <c r="G20">
         <v>141.52000000000001</v>
       </c>
@@ -3555,6 +8797,10 @@
         <f>AVERAGE(E57:E62)</f>
         <v>42.811999999999998</v>
       </c>
+      <c r="F56">
+        <f>AVERAGE(F57:F61)</f>
+        <v>60.46</v>
+      </c>
       <c r="G56">
         <f>AVERAGE(G57:G62)</f>
         <v>86.701999999999998</v>
@@ -3568,6 +8814,9 @@
       <c r="E57">
         <v>66</v>
       </c>
+      <c r="F57">
+        <v>57.9</v>
+      </c>
       <c r="G57">
         <v>107.36</v>
       </c>
@@ -3576,6 +8825,9 @@
       <c r="E58">
         <v>19.89</v>
       </c>
+      <c r="F58">
+        <v>61.87</v>
+      </c>
       <c r="G58">
         <v>95.1</v>
       </c>
@@ -3584,6 +8836,9 @@
       <c r="E59">
         <v>48.68</v>
       </c>
+      <c r="F59">
+        <v>67.239999999999995</v>
+      </c>
       <c r="G59">
         <v>100.89</v>
       </c>
@@ -3592,6 +8847,9 @@
       <c r="E60">
         <v>51.49</v>
       </c>
+      <c r="F60">
+        <v>43.93</v>
+      </c>
       <c r="G60">
         <v>89.68</v>
       </c>
@@ -3600,6 +8858,9 @@
       <c r="E61">
         <v>28</v>
       </c>
+      <c r="F61">
+        <v>71.36</v>
+      </c>
       <c r="G61">
         <v>40.479999999999997</v>
       </c>
@@ -3777,6 +9038,9 @@
       <c r="E90">
         <v>2.25</v>
       </c>
+      <c r="F90">
+        <v>1.58</v>
+      </c>
       <c r="G90">
         <v>1.9</v>
       </c>
@@ -3785,6 +9049,9 @@
       <c r="E91">
         <v>1.95</v>
       </c>
+      <c r="F91">
+        <v>2.1800000000000002</v>
+      </c>
       <c r="G91">
         <v>1.24</v>
       </c>
@@ -3793,6 +9060,9 @@
       <c r="E92">
         <v>2.69</v>
       </c>
+      <c r="F92">
+        <v>1.45</v>
+      </c>
       <c r="G92">
         <v>1.29</v>
       </c>
@@ -3801,6 +9071,9 @@
       <c r="E93">
         <v>2.66</v>
       </c>
+      <c r="F93">
+        <v>1.33</v>
+      </c>
       <c r="G93">
         <v>1.28</v>
       </c>
@@ -3809,6 +9082,9 @@
       <c r="E94">
         <v>1.55</v>
       </c>
+      <c r="F94">
+        <v>1.7</v>
+      </c>
       <c r="G94">
         <v>1.55</v>
       </c>
@@ -3837,6 +9113,9 @@
       <c r="E99">
         <v>0.17</v>
       </c>
+      <c r="F99">
+        <v>0.15</v>
+      </c>
       <c r="G99">
         <v>0.19</v>
       </c>
@@ -3845,6 +9124,9 @@
       <c r="E100">
         <v>0.37</v>
       </c>
+      <c r="F100">
+        <v>0.31</v>
+      </c>
       <c r="G100">
         <v>0.32</v>
       </c>
@@ -3853,6 +9135,9 @@
       <c r="E101">
         <v>0.19</v>
       </c>
+      <c r="F101">
+        <v>0.19</v>
+      </c>
       <c r="G101">
         <v>0.12</v>
       </c>
@@ -3861,6 +9146,9 @@
       <c r="E102">
         <v>0.18</v>
       </c>
+      <c r="F102">
+        <v>0.25</v>
+      </c>
       <c r="G102">
         <v>0.17</v>
       </c>
@@ -3869,6 +9157,9 @@
       <c r="E103">
         <v>0.18</v>
       </c>
+      <c r="F103">
+        <v>0.33</v>
+      </c>
       <c r="G103">
         <v>0.11</v>
       </c>
@@ -3897,6 +9188,9 @@
       <c r="E106">
         <v>0.03</v>
       </c>
+      <c r="F106">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="G106">
         <v>0</v>
       </c>
@@ -3905,6 +9199,9 @@
       <c r="E107">
         <v>0</v>
       </c>
+      <c r="F107">
+        <v>0.19</v>
+      </c>
       <c r="G107">
         <v>0</v>
       </c>
@@ -3913,6 +9210,9 @@
       <c r="E108">
         <v>0.03</v>
       </c>
+      <c r="F108">
+        <v>0.1</v>
+      </c>
       <c r="G108">
         <v>0.01</v>
       </c>
@@ -3921,6 +9221,9 @@
       <c r="E109">
         <v>0.01</v>
       </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
       <c r="G109">
         <v>0</v>
       </c>
@@ -3929,6 +9232,9 @@
       <c r="E110">
         <v>0.02</v>
       </c>
+      <c r="F110">
+        <v>0.1</v>
+      </c>
       <c r="G110">
         <v>0.01</v>
       </c>
@@ -3943,6 +9249,9 @@
       <c r="E113">
         <f>AVERAGE(E72:E77)</f>
         <v>0.35399999999999998</v>
+      </c>
+      <c r="F113">
+        <v>0.54</v>
       </c>
       <c r="G113">
         <f>AVERAGE(G72:G77)</f>
